--- a/backtest_portfolio/portfolio.xlsx
+++ b/backtest_portfolio/portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyeong/projects/predict_stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyeong/projects/backtest_portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A0A42-533F-2B4A-B553-91297ED46B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEA745A-648D-2D4E-9076-65D27914EFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29380" yWindow="2600" windowWidth="28040" windowHeight="17040" xr2:uid="{3AD41BE2-8DC5-DC4B-A9DF-BBD121007126}"/>
+    <workbookView xWindow="-29040" yWindow="6200" windowWidth="28040" windowHeight="21000" xr2:uid="{3AD41BE2-8DC5-DC4B-A9DF-BBD121007126}"/>
   </bookViews>
   <sheets>
     <sheet name="포트폴리오" sheetId="3" r:id="rId1"/>
@@ -240,8 +240,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -339,13 +339,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,7 +681,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,7 +726,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="6">
-        <f>E2/SUM($E$2:$E$7)</f>
+        <f t="shared" ref="B2:B7" si="0">E2/SUM($E$2:$E$7)</f>
         <v>0.33265549889804563</v>
       </c>
       <c r="C2" s="7">
@@ -736,7 +736,7 @@
         <v>109.32</v>
       </c>
       <c r="E2" s="8">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E7" si="1">C2*D2</f>
         <v>1639.8</v>
       </c>
       <c r="F2" s="7"/>
@@ -753,7 +753,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="6">
-        <f>E3/SUM($E$2:$E$7)</f>
+        <f t="shared" si="0"/>
         <v>0.178276407142092</v>
       </c>
       <c r="C3" s="7">
@@ -763,7 +763,7 @@
         <v>21.97</v>
       </c>
       <c r="E3" s="8">
-        <f>C3*D3</f>
+        <f t="shared" si="1"/>
         <v>878.8</v>
       </c>
       <c r="F3" s="7"/>
@@ -780,7 +780,7 @@
         <v>56</v>
       </c>
       <c r="B4" s="6">
-        <f>E4/SUM($E$2:$E$7)</f>
+        <f t="shared" si="0"/>
         <v>0.1675713024483185</v>
       </c>
       <c r="C4" s="7">
@@ -790,7 +790,7 @@
         <v>48.59</v>
       </c>
       <c r="E4" s="8">
-        <f>C4*D4</f>
+        <f t="shared" si="1"/>
         <v>826.03000000000009</v>
       </c>
       <c r="F4" s="7"/>
@@ -807,7 +807,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="6">
-        <f>E5/SUM($E$2:$E$7)</f>
+        <f t="shared" si="0"/>
         <v>0.1658611634949641</v>
       </c>
       <c r="C5" s="7">
@@ -817,7 +817,7 @@
         <v>163.52000000000001</v>
       </c>
       <c r="E5" s="8">
-        <f>C5*D5</f>
+        <f t="shared" si="1"/>
         <v>817.6</v>
       </c>
       <c r="F5" s="7"/>
@@ -834,7 +834,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="6">
-        <f>E6/SUM($E$2:$E$7)</f>
+        <f t="shared" si="0"/>
         <v>8.3700245708220655E-2</v>
       </c>
       <c r="C6" s="7">
@@ -844,7 +844,7 @@
         <v>58.942</v>
       </c>
       <c r="E6" s="8">
-        <f>C6*D6</f>
+        <f t="shared" si="1"/>
         <v>412.59399999999999</v>
       </c>
       <c r="F6" s="7"/>
@@ -861,7 +861,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="6">
-        <f>E7/SUM($E$2:$E$7)</f>
+        <f t="shared" si="0"/>
         <v>7.1935382308358942E-2</v>
       </c>
       <c r="C7" s="7">
@@ -871,7 +871,7 @@
         <v>70.92</v>
       </c>
       <c r="E7" s="8">
-        <f>C7*D7</f>
+        <f t="shared" si="1"/>
         <v>354.6</v>
       </c>
       <c r="F7" s="7"/>
@@ -964,7 +964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
@@ -978,7 +978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>43</v>
       </c>
